--- a/example.xlsx
+++ b/example.xlsx
@@ -2,41 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab9de0a26896c80/Dokumenti/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab9de0a26896c80/Dokumenti/proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{981DBFA6-BEE8-448A-AACE-3F3125ABF0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_959B2A72B592D4ABB3B1372AE26BBAF591A09F39" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95B7F31A-6CD2-4793-891D-AE8FCEC5731B}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{783C38C0-E280-417B-9D90-6243927D6F30}"/>
+    <workbookView xWindow="1140" yWindow="1040" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapa1" sheetId="1" r:id="rId1"/>
+    <sheet name="asdfgh" sheetId="2" r:id="rId2"/>
+    <sheet name="qwerty" sheetId="3" r:id="rId3"/>
+    <sheet name="zxcvb" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="21">
   <si>
     <t>Letters</t>
   </si>
@@ -44,6 +31,9 @@
     <t>Numbers</t>
   </si>
   <si>
+    <t>Dates</t>
+  </si>
+  <si>
     <t>g</t>
   </si>
   <si>
@@ -95,17 +85,17 @@
     <t>xbxfb</t>
   </si>
   <si>
-    <t>4.352</t>
-  </si>
-  <si>
-    <t>e</t>
+    <t>rtu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +103,16 @@
       <family val="2"/>
       <charset val="186"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,12 +131,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Parasts" xfId="0" builtinId="0"/>
@@ -470,85 +509,535 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621624BF-0087-4319-B061-84079D245D20}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>413</v>
+      </c>
+      <c r="C2" s="3">
+        <v>38322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>84311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>642</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1233435</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>39254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>658</v>
+      </c>
+      <c r="C7" s="3">
+        <v>12377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>-2428</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="C9" s="3">
+        <v>36768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>29567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>24667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>30057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>8249</v>
+      </c>
+      <c r="C14" s="3">
+        <v>7355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>34.243000000000002</v>
+      </c>
+      <c r="C15" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>-12.04</v>
+      </c>
+      <c r="C16" s="3">
+        <v>42672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>124</v>
+      </c>
+      <c r="C17" s="3">
+        <v>41278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>53651</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3">
+        <v>40461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>63</v>
+      </c>
+      <c r="C20" s="3">
+        <v>36228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>40797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>413</v>
+        <v>-2428</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1233435</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>642</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>1233435</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>658</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>-2428</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>34.243000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>53651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>8249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>-12.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>4.3520000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1233435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>53651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>8249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -556,95 +1045,366 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>34.243000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>0</v>
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>8249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>34.243000000000002</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>4.3520000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>-12.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>-2428</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>8249</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>658</v>
+      </c>
+      <c r="C3" s="5">
+        <v>12377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>24667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>14</v>
+      </c>
+      <c r="B5">
+        <v>34.243000000000002</v>
+      </c>
+      <c r="C5" s="5">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>29567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>30057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>63</v>
+      </c>
+      <c r="C9" s="5">
+        <v>36228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="C10" s="5">
+        <v>36768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>413</v>
+      </c>
+      <c r="C11" s="5">
+        <v>38322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5">
+        <v>39254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5">
+        <v>40461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>40797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>124</v>
+      </c>
+      <c r="C15" s="5">
+        <v>41278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
       <c r="B16">
         <v>-12.04</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="5">
+        <v>42672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>53651</v>
+      </c>
+      <c r="C17" s="5">
+        <v>44140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>53651</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1233435</v>
+      </c>
+      <c r="C18" s="5">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B19">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
       <c r="B20">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>-2428</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>642</v>
+      </c>
+      <c r="C21" s="5">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5">
+        <v>84311</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>